--- a/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6829767138364</v>
+        <v>16.27395536621195</v>
       </c>
       <c r="D2" t="n">
         <v>0.00301823225217215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008574046394687406</v>
+        <v>0.006275575909959944</v>
       </c>
       <c r="F2" t="n">
-        <v>11.18440879957055</v>
+        <v>5.419143735856542</v>
       </c>
       <c r="G2" t="n">
-        <v>10.08635357664128</v>
+        <v>3.489393161372961</v>
       </c>
       <c r="H2" t="n">
-        <v>12.28654757023935</v>
+        <v>7.358364726262872</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03172151970235018</v>
+        <v>0.03122526930932872</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007347573208887482</v>
+        <v>0.00650207751422318</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07240795462285166</v>
+        <v>0.0725564117308637</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00896687553225939</v>
+        <v>0.006852645963075444</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005255483706290543</v>
+        <v>0.002890481616023623</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01450084836041305</v>
+        <v>0.01262880953653676</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3589057188001392</v>
+        <v>0.3589057182506037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3038166774373344</v>
+        <v>0.3038166771491592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3557873749964925</v>
+        <v>0.3557873748505794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2614948377828109</v>
+        <v>0.501976381459472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003962956437744095</v>
+        <v>0.01311796782735086</v>
       </c>
       <c r="H3" t="n">
-        <v>0.637063299005923</v>
+        <v>1.077735895611366</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2059703613822612</v>
+        <v>0.4636924753817018</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0009560114909358048</v>
+        <v>0.0121250613178008</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5070033420297723</v>
+        <v>0.9946740427033118</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2085626553094534</v>
+        <v>0.5209492973534806</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003252954042665801</v>
+        <v>0.01377028691417379</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5165129753837387</v>
+        <v>1.11414161745914</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16.63286108446255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3068349094013313</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3620629507605393</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.921120117316013</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.502511129200312</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.436100621874237</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4949177446910304</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01862713883202399</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.067230454434176</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5278019433165559</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01666076853019741</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.126770426995677</v>
       </c>
     </row>
   </sheetData>
